--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F960602-5948-46C0-947C-9939B6B84E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731E0C1-95D5-462E-B112-BA1CB1FFAA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skin_scene_path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>base_damage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,6 +141,118 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅士兵2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅士兵3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木乃伊1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木乃伊2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木乃伊3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅弓箭手1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅弓箭手2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅弓箭手3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitanSkeleton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitanSkeleton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitanSkeleton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mummy1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mummy2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mummy3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,25 +624,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,37 +662,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -589,34 +712,40 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,8 +761,10 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -647,34 +778,40 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="O4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>7001</v>
@@ -682,90 +819,571 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>7002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>7003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>7004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>7005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>7006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>7007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>200</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>7008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>7009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3">
+        <v>200</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3">
+        <v>10</v>
+      </c>
+      <c r="O13" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>7010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>7011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>7012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
+      <c r="F16" s="3">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3">
+        <v>10</v>
+      </c>
+      <c r="O16" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731E0C1-95D5-462E-B112-BA1CB1FFAA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC2FFE-B85B-4EFA-9634-6B5C9BDE0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1258,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="O14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="O16" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC2FFE-B85B-4EFA-9634-6B5C9BDE0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91563B8F-EFF6-4DD5-BA4A-F43FDC586DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -253,6 +265,30 @@
   </si>
   <si>
     <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物基础掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通物品掉落率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -334,11 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="O5" sqref="O5:O16"/>
@@ -1389,4 +1426,72 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4755CE-4DC2-4800-BADC-08EC8B6C27C4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91563B8F-EFF6-4DD5-BA4A-F43FDC586DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63901C45-C952-4AA9-882C-4ECC3B2BEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -289,6 +290,26 @@
   </si>
   <si>
     <t>普通物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级需要经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要杀死多少敌人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -296,6 +317,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,7 +351,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +368,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -370,12 +400,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1432,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4755CE-4DC2-4800-BADC-08EC8B6C27C4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1494,4 +1526,565 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <f>(A2 + (A2 + 2)) * 10</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="5">
+        <f>(A2 * A2) / (A2 + B2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2 / D2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C26" si="0">(A3 + (A3 + 2)) * 10</f>
+        <v>60</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D26" si="1">(A3 * A3) / (A3 + B3)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E10" si="2">C3 / D3</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>A4-1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B26" si="3">A5-1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>42.777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>42.448979591836732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7647058823529411</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>41.97530864197531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11:E26" si="4">C11 / D11</f>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7619047619047619</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="4"/>
+        <v>41.652892561983471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>6.2608695652173916</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="4"/>
+        <v>41.527777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>6.76</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>41.42011834319527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.2592592592592595</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="4"/>
+        <v>41.326530612244895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7586206896551726</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
+        <v>41.24444444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>8.258064516129032</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="4"/>
+        <v>41.171875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>8.7575757575757578</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="4"/>
+        <v>41.107266435986155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>9.257142857142858</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="4"/>
+        <v>41.049382716049379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7567567567567561</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="4"/>
+        <v>40.99722991689751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>10.256410256410257</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="4"/>
+        <v>40.949999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>10.75609756097561</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="4"/>
+        <v>40.90702947845805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>11.255813953488373</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="4"/>
+        <v>40.867768595041319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>11.755555555555556</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>40.831758034026464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>12.25531914893617</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="4"/>
+        <v>40.798611111111114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>12.755102040816327</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="4"/>
+        <v>40.768000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63901C45-C952-4AA9-882C-4ECC3B2BEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299FD6DE-4F9B-47EC-92CB-53BA9DEB904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>需要杀死多少敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞升次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机需要多少分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机需要天数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1530,20 +1542,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C26"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
@@ -1559,8 +1572,17 @@
       <c r="E1" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1568,19 +1590,30 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <f>(A2 + (A2 + 2)) * 10</f>
-        <v>40</v>
+        <f xml:space="preserve"> (15 + (A2 ^ 3)) * (1.07 ^ (A2 - 1))</f>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
-        <f>(A2 * A2) / (A2 + B2)</f>
-        <v>0.5</v>
+        <f xml:space="preserve"> (3 * B2 * 1.5) * (1 + H2 * 0.1)</f>
+        <v>4.5</v>
       </c>
       <c r="E2" s="5">
         <f>C2 / D2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="F2" s="5">
+        <f>((E2) /60) * 1.8</f>
+        <v>0.10666666666666666</v>
+      </c>
+      <c r="G2" s="5">
+        <f>F2 / 1440</f>
+        <v>7.4074074074074073E-5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1588,19 +1621,30 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C26" si="0">(A3 + (A3 + 2)) * 10</f>
-        <v>60</v>
+        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (15 + (A3 ^ 3)) * (1.07 ^ (A3 - 1))</f>
+        <v>24.610000000000003</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D26" si="1">(A3 * A3) / (A3 + B3)</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="D3:D66" si="1" xml:space="preserve"> (3 * B3 * 1.5) * (1 + H3 * 0.1)</f>
+        <v>4.5</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E10" si="2">C3 / D3</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.4688888888888894</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F66" si="3">((E3) /60) * 1.8</f>
+        <v>0.16406666666666669</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G66" si="4">F3 / 1440</f>
+        <v>1.1393518518518521E-4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1610,478 +1654,3134 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>48.085799999999999</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.3428666666666667</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.16028600000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1130972222222223E-4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B26" si="3">A5-1</f>
+        <f t="shared" ref="B5:B26" si="5">A5-1</f>
         <v>3</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.778397000000012</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="1"/>
-        <v>2.2857142857142856</v>
+        <v>13.5</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.1687701481481492</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.21506310444444446</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4934937808641977E-4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>183.5114414</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="1"/>
-        <v>2.7777777777777777</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10.195080077777778</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.30585240233333338</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>2.123975016203704E-4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>323.98944979170005</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="1"/>
-        <v>3.2727272727272729</v>
+        <v>22.5</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>42.777777777777779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14.399531101853336</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43198593305560007</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>2.9999023128861118E-4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>537.26146596194201</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>3.7692307692307692</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>42.448979591836732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.898572813405259</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59695718440215773</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>4.1455360027927622E-4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>846.24683810413273</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>4.2666666666666666</v>
+        <v>31.5</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>42.1875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26.864978987432785</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.80594936962298358</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>5.5968706223818304E-4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>1278.3305177949487</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>4.7647058823529411</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>41.97530864197531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.509181049859684</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0652754314957906</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>7.3977460520541021E-4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>1866.0361006064572</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>5.2631578947368425</v>
+        <v>40.5</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:E26" si="4">C11 / D11</f>
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E11:E26" si="6">C11 / D11</f>
+        <v>46.074965447073019</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3822489634121906</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="4"/>
+        <v>9.5989511348068795E-4</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>2647.7857269117553</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>5.7619047619047619</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="4"/>
-        <v>41.652892561983471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>58.839682820261231</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>1.765190484607837</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2258267254221091E-3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>3668.7569528586132</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>6.2608695652173916</v>
+        <v>49.5</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="4"/>
-        <v>41.527777777777779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>74.116302077951786</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2234890623385537</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5440896266239955E-3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>4981.8477947813417</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>6.76</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="4"/>
-        <v>41.42011834319527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>92.256440644098916</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7676932193229677</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9220091800853942E-3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>6648.7623555189166</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="1"/>
-        <v>7.2592592592592595</v>
+        <v>58.5</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="4"/>
-        <v>41.326530612244895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>113.65405735929772</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>3.4096217207789317</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3677928616520358E-3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>8741.2307691822261</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>7.7586206896551726</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="4"/>
-        <v>41.24444444444444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>138.74969474892421</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>4.1624908424677267</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
+        <v>2.8906186406025881E-3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>11342.37866388074</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>8.258064516129032</v>
+        <v>67.5</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="4"/>
-        <v>41.171875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>168.03523946489986</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0410571839469958</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5007341555187469E-3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>14548.262952930329</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="1"/>
-        <v>8.7575757575757578</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="4"/>
-        <v>41.107266435986155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>202.0592076795879</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>6.061776230387637</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>4.2095668266580811E-3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>18469.592538512272</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="1"/>
-        <v>9.257142857142858</v>
+        <v>76.5</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="4"/>
-        <v>41.049382716049379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>241.4325822027748</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2429774660832438</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
+        <v>5.0298454625578078E-3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>23233.654463385446</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="1"/>
-        <v>9.7567567567567561</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="4"/>
-        <v>40.99722991689751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>286.8352402887092</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="3"/>
+        <v>8.6050572086612771</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9757341726814428E-3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>28986.468193296008</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>10.256410256410257</v>
+        <v>85.5</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="4"/>
-        <v>40.949999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>339.0230198046317</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>10.17069059413895</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="4"/>
+        <v>7.0629795792631596E-3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>35895.193074021801</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="1"/>
-        <v>10.75609756097561</v>
+        <v>90</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="4"/>
-        <v>40.90702947845805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>398.83547860024225</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>11.965064358007268</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="4"/>
+        <v>8.3090724708383811E-3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>44150.816603134444</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="1"/>
-        <v>11.255813953488373</v>
+        <v>94.5</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="4"/>
-        <v>40.867768595041319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>467.20440849877718</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>14.016132254963317</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="4"/>
+        <v>9.7334251770578584E-3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>53971.154010085404</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>11.755555555555556</v>
+        <v>99</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="4"/>
-        <v>40.831758034026464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>545.16317181904446</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>16.354895154571334</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1357566079563427E-2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>65604.192773745031</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="1"/>
-        <v>12.25531914893617</v>
+        <v>103.5</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="4"/>
-        <v>40.798611111111114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>633.85693501202934</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>19.015708050360878</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.320535281275061E-2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>79331.819150955154</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="1"/>
-        <v>12.755102040816327</v>
+        <v>108</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="4"/>
-        <v>40.768000000000001</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>734.55388102736254</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>22.036616430820875</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5303205854736719E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B90" si="7">A27-1</f>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>95473.967572401772</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ref="E27:E90" si="8">C27 / D27</f>
+        <v>848.6574895324602</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>25.459724685973804</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7680364365259587E-2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>114393.23791530055</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="8"/>
+        <v>977.7199821820559</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>29.331599465461679</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0369166295459498E-2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>136500.03022110806</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>121.5</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="8"/>
+        <v>1123.4570388568563</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>33.703711165705691</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3405354976184508E-2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>162258.25142905425</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="8"/>
+        <v>1287.7639002305893</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>38.63291700691768</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6828414588137277E-2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>192191.65418459324</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>130.5</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="8"/>
+        <v>1472.7329822574195</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="3"/>
+        <v>44.181989467722588</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0681937130362907E-2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>226890.87380158447</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="8"/>
+        <v>1680.673139270996</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>50.420194178129883</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="4"/>
+        <v>3.5014023734812418E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>267021.23605804064</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>139.5</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="8"/>
+        <v>1914.1307244303989</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="3"/>
+        <v>57.423921732911971</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="4"/>
+        <v>3.987772342563331E-2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>313331.41574205481</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="8"/>
+        <v>2175.9126093198252</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="3"/>
+        <v>65.277378279594757</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5331512694163023E-2</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>366663.03379648377</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>148.5</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="8"/>
+        <v>2469.1113386968605</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="3"/>
+        <v>74.073340160905815</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="4"/>
+        <v>5.1439819556184596E-2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>427961.28960294952</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="8"/>
+        <v>2797.132611783984</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="3"/>
+        <v>83.913978353519511</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="4"/>
+        <v>5.8273596078832993E-2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>498286.73446848692</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>157.5</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="8"/>
+        <v>3163.7252982126151</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="3"/>
+        <v>94.911758946378455</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="4"/>
+        <v>6.5910943712762821E-2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>578828.30280886951</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="8"/>
+        <v>3573.014214869565</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="3"/>
+        <v>107.19042644608695</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4437796143115936E-2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>670917.72894547542</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>166.5</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="8"/>
+        <v>4029.5359095824351</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="3"/>
+        <v>120.88607728747306</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="4"/>
+        <v>8.3948664782967405E-2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>776045.48993930069</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="8"/>
+        <v>4538.2777189432791</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="3"/>
+        <v>136.14833156829837</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="4"/>
+        <v>9.4547452477984989E-2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>895878.42857647955</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>175.5</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="8"/>
+        <v>5104.7203907491712</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>153.14161172247515</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10634834147394108</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>1032279.2256035706</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="8"/>
+        <v>5734.8845866865031</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="3"/>
+        <v>172.04653760059509</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="4"/>
+        <v>0.11947676222263548</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>1187327.9067068656</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="1"/>
+        <v>184.5</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="8"/>
+        <v>6435.3816081672931</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="3"/>
+        <v>193.06144824501879</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13407045017015193</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>1363345.5876677516</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="8"/>
+        <v>7213.4687178187914</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="3"/>
+        <v>216.40406153456374</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15028059828789148</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>1562920.6807470149</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="1"/>
+        <v>193.5</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="8"/>
+        <v>8077.1094612248835</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="3"/>
+        <v>242.31328383674651</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1682731137755184</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>1788937.8068089148</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="8"/>
+        <v>9035.0394283278529</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="3"/>
+        <v>271.05118284983564</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="4"/>
+        <v>0.18822998809016364</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>2044609.6811586625</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="1"/>
+        <v>202.5</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="8"/>
+        <v>10096.837931647717</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="3"/>
+        <v>302.90513794943149</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="4"/>
+        <v>0.21035079024266076</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>2333512.2667173827</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="8"/>
+        <v>11273.006119407646</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="3"/>
+        <v>338.19018358222939</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="4"/>
+        <v>0.23485429415432596</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>2659623.5161958649</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="1"/>
+        <v>211.5</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="8"/>
+        <v>12575.052086032458</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="3"/>
+        <v>377.25156258097371</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="4"/>
+        <v>0.26198025179234286</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>3027366.0555692422</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="8"/>
+        <v>14015.583590598344</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="3"/>
+        <v>420.4675077179503</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="4"/>
+        <v>0.29199132480413215</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>3441654.1946353852</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="1"/>
+        <v>220.5</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="8"/>
+        <v>15608.409045965465</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="3"/>
+        <v>468.252271378964</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3251751884576139</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
+        <v>3907945.6870174212</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="8"/>
+        <v>17368.647497855207</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="3"/>
+        <v>521.05942493565624</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3618468228719835</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
+        <v>4432298.7019253802</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="1"/>
+        <v>229.5</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="8"/>
+        <v>19312.848374402529</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="3"/>
+        <v>579.38545123207587</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="4"/>
+        <v>0.40235100780005267</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="0"/>
+        <v>5021434.5136284158</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="8"/>
+        <v>21459.121853112887</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="3"/>
+        <v>643.77365559338671</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="4"/>
+        <v>0.44706503860651853</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
+        <v>5682806.4622391239</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="1"/>
+        <v>238.5</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="8"/>
+        <v>23827.28076410534</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="3"/>
+        <v>714.81842292316026</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="4"/>
+        <v>0.49640168258552797</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="0"/>
+        <v>6424675.7914363537</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="8"/>
+        <v>26438.995026487053</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="3"/>
+        <v>793.16985079461165</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="4"/>
+        <v>0.55081239638514701</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="0"/>
+        <v>7256195.025545774</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="1"/>
+        <v>247.5</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="8"/>
+        <v>29317.959699174844</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="3"/>
+        <v>879.53879097524532</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="4"/>
+        <v>0.61079082706614263</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="0"/>
+        <v>8187499.6103858175</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="8"/>
+        <v>32490.07781899134</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="3"/>
+        <v>974.70233456974029</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67687662122898629</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="0"/>
+        <v>9229808.6099361591</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="1"/>
+        <v>256.5</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="8"/>
+        <v>35983.659297996724</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="3"/>
+        <v>1079.5097789399017</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="4"/>
+        <v>0.74965956870826511</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="0"/>
+        <v>10395535.324702749</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="8"/>
+        <v>39829.637259397503</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="3"/>
+        <v>1194.8891177819251</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8297841095707813</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="0"/>
+        <v>11698408.77818856</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="1"/>
+        <v>265.5</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="8"/>
+        <v>44061.803307678194</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="3"/>
+        <v>1321.8540992303458</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="4"/>
+        <v>0.91795423557662903</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="0"/>
+        <v>13153607.10573177</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="8"/>
+        <v>48717.063354562109</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="3"/>
+        <v>1461.5119006368634</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0149388198867106</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="0"/>
+        <v>14777903.975794848</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="1"/>
+        <v>274.5</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="8"/>
+        <v>53835.715758815473</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="3"/>
+        <v>1615.071472764464</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="4"/>
+        <v>1.121577411641989</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="0"/>
+        <v>16589829.278287491</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="8"/>
+        <v>59461.753685618249</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="3"/>
+        <v>1783.8526105685476</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2387865351170468</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="0"/>
+        <v>18609845.428454667</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="1"/>
+        <v>283.5</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="8"/>
+        <v>65643.193751162849</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="3"/>
+        <v>1969.2958125348855</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3675665364825593</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="0"/>
+        <v>20860540.759095605</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="8"/>
+        <v>72432.433191304182</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="3"/>
+        <v>2172.9729957391255</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5090090248188373</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:C101" si="9" xml:space="preserve"> (15 + (A67 ^ 3)) * (1.07 ^ (A67 - 1))</f>
+        <v>23366841.609312266</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:D101" si="10" xml:space="preserve"> (3 * B67 * 1.5) * (1 + H67 * 0.1)</f>
+        <v>292.5</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="8"/>
+        <v>79886.637980554762</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F101" si="11">((E67) /60) * 1.8</f>
+        <v>2396.5991394166431</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" ref="G67:G101" si="12">F67 / 1440</f>
+        <v>1.6643049579282243</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="9"/>
+        <v>26156244.865606274</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="10"/>
+        <v>297</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="8"/>
+        <v>88068.164530660855</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="11"/>
+        <v>2642.044935919826</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="12"/>
+        <v>1.8347534277221014</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="9"/>
+        <v>29259072.872029092</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="10"/>
+        <v>301.5</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="8"/>
+        <v>97045.017817675267</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="11"/>
+        <v>2911.3505345302583</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="12"/>
+        <v>2.0217712045349017</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="9"/>
+        <v>32708752.801410794</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="10"/>
+        <v>306</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="8"/>
+        <v>106891.34902421829</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="11"/>
+        <v>3206.7404707265487</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="12"/>
+        <v>2.2269031046712144</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="9"/>
+        <v>36542122.770720676</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="10"/>
+        <v>310.5</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="8"/>
+        <v>117687.99604096836</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="11"/>
+        <v>3530.6398812290504</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="12"/>
+        <v>2.451833250853507</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="9"/>
+        <v>40799767.19173003</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="8"/>
+        <v>129523.0704499366</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="11"/>
+        <v>3885.692113498098</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="12"/>
+        <v>2.6983973010403459</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="9"/>
+        <v>45526384.074855685</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="10"/>
+        <v>319.5</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="8"/>
+        <v>142492.59491347632</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="11"/>
+        <v>4274.7778474042898</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="12"/>
+        <v>2.9685957273640899</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="9"/>
+        <v>50771187.250994354</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="10"/>
+        <v>324</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="8"/>
+        <v>156701.19521911838</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="11"/>
+        <v>4701.0358565735514</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="12"/>
+        <v>3.2646082337316331</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="9"/>
+        <v>56588346.7450855</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="10"/>
+        <v>328.5</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="8"/>
+        <v>172262.85158321308</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="11"/>
+        <v>5167.885547496393</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" si="12"/>
+        <v>3.5888094079836064</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="9"/>
+        <v>63037470.82799042</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="10"/>
+        <v>333</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="8"/>
+        <v>189301.71419816944</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="11"/>
+        <v>5679.0514259450838</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" si="12"/>
+        <v>3.9437857124618638</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="9"/>
+        <v>70184133.592139825</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="10"/>
+        <v>337.5</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="8"/>
+        <v>207952.98842115502</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="11"/>
+        <v>6238.5896526346505</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="12"/>
+        <v>4.3323539254407297</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="9"/>
+        <v>78100452.243553832</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="10"/>
+        <v>342</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="8"/>
+        <v>228363.89544898781</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="11"/>
+        <v>6850.9168634696343</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="12"/>
+        <v>4.7575811551872462</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="9"/>
+        <v>86865718.680746123</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="10"/>
+        <v>346.5</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="8"/>
+        <v>250694.71480734812</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="11"/>
+        <v>7520.8414442204439</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="12"/>
+        <v>5.2228065584864192</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="9"/>
+        <v>96567090.342366323</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="10"/>
+        <v>351</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="8"/>
+        <v>275119.91550531716</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="11"/>
+        <v>8253.5974651595134</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="12"/>
+        <v>5.7316649063607734</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="9"/>
+        <v>107300345.75312637</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="10"/>
+        <v>355.5</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="8"/>
+        <v>301829.38327180414</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="11"/>
+        <v>9054.8814981541236</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="12"/>
+        <v>6.2881121514959188</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="9"/>
+        <v>119170710.68475272</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="8"/>
+        <v>331029.75190209091</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="11"/>
+        <v>9930.8925570627271</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" si="12"/>
+        <v>6.8964531646268936</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="9"/>
+        <v>132293761.37884487</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="10"/>
+        <v>364.5</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="8"/>
+        <v>362945.84740423836</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="11"/>
+        <v>10888.37542212715</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" si="12"/>
+        <v>7.5613718209216323</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="9"/>
+        <v>146796411.85532108</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="10"/>
+        <v>369</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="8"/>
+        <v>397822.25435046363</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="11"/>
+        <v>11934.66763051391</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" si="12"/>
+        <v>8.2879636323013255</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="9"/>
+        <v>162817992.95764482</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="10"/>
+        <v>373.5</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="8"/>
+        <v>435925.01461216819</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="11"/>
+        <v>13077.750438365047</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" si="12"/>
+        <v>9.0817711377535044</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="9"/>
+        <v>180511431.46863613</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="8"/>
+        <v>477543.46949374635</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="11"/>
+        <v>14326.304084812391</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" si="12"/>
+        <v>9.9488222811197158</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="9"/>
+        <v>200044538.37314773</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="10"/>
+        <v>382.5</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="8"/>
+        <v>522992.25718469993</v>
+      </c>
+      <c r="F87" s="5">
+        <f t="shared" si="11"/>
+        <v>15689.767715540998</v>
+      </c>
+      <c r="G87" s="5">
+        <f t="shared" si="12"/>
+        <v>10.895672024681248</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="9"/>
+        <v>221601416.15139991</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="10"/>
+        <v>387</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="8"/>
+        <v>572613.47842738999</v>
+      </c>
+      <c r="F88" s="5">
+        <f t="shared" si="11"/>
+        <v>17178.404352821701</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" si="12"/>
+        <v>11.929447467237292</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="9"/>
+        <v>245383995.86493143</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="10"/>
+        <v>391.5</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="8"/>
+        <v>626779.04435486952</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="11"/>
+        <v>18803.371330646085</v>
+      </c>
+      <c r="G89" s="5">
+        <f t="shared" si="12"/>
+        <v>13.057896757393115</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="9"/>
+        <v>271613715.75202727</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="8"/>
+        <v>685893.22159602842</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="11"/>
+        <v>20576.796647880852</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" si="12"/>
+        <v>14.289442116583926</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91:B99" si="13">A91-1</f>
+        <v>89</v>
+      </c>
+      <c r="C91" s="5">
+        <f t="shared" si="9"/>
+        <v>300533354.08774054</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="10"/>
+        <v>400.5</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" ref="E91:E100" si="14">C91 / D91</f>
+        <v>750395.39098062553</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="11"/>
+        <v>22511.861729418764</v>
+      </c>
+      <c r="G91" s="5">
+        <f t="shared" si="12"/>
+        <v>15.633237312096364</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="9"/>
+        <v>332409030.19240141</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="14"/>
+        <v>820763.03751210228</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="11"/>
+        <v>24622.891125363069</v>
+      </c>
+      <c r="G92" s="5">
+        <f t="shared" si="12"/>
+        <v>17.099229948168798</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="9"/>
+        <v>367532388.69958776</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="10"/>
+        <v>409.5</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="14"/>
+        <v>897514.99071938405</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="11"/>
+        <v>26925.449721581524</v>
+      </c>
+      <c r="G93" s="5">
+        <f t="shared" si="12"/>
+        <v>18.698228973320504</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="9"/>
+        <v>406222983.52835327</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="10"/>
+        <v>414</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="14"/>
+        <v>981214.9360588243</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="11"/>
+        <v>29436.448081764731</v>
+      </c>
+      <c r="G94" s="5">
+        <f t="shared" si="12"/>
+        <v>20.441977834558841</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="9"/>
+        <v>448830879.45423681</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="10"/>
+        <v>418.5</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="14"/>
+        <v>1072475.2197233855</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" si="11"/>
+        <v>32174.256591701567</v>
+      </c>
+      <c r="G95" s="5">
+        <f t="shared" si="12"/>
+        <v>22.3432337442372</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="5">
+        <f t="shared" si="9"/>
+        <v>495739490.74913025</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="10"/>
+        <v>423</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="14"/>
+        <v>1171960.9710381329</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="11"/>
+        <v>35158.82913114399</v>
+      </c>
+      <c r="G96" s="5">
+        <f t="shared" si="12"/>
+        <v>24.415853563294437</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="5">
+        <f t="shared" si="9"/>
+        <v>547368678.07225275</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="10"/>
+        <v>427.5</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="14"/>
+        <v>1280394.568590065</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="11"/>
+        <v>38411.837057701952</v>
+      </c>
+      <c r="G97" s="5">
+        <f t="shared" si="12"/>
+        <v>26.674886845626357</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="5">
+        <f t="shared" si="9"/>
+        <v>604178126.65493071</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="10"/>
+        <v>432</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="14"/>
+        <v>1398560.4783678951</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="11"/>
+        <v>41956.814351036854</v>
+      </c>
+      <c r="G98" s="5">
+        <f t="shared" si="12"/>
+        <v>29.136676632664482</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" si="9"/>
+        <v>666671030.84331441</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="10"/>
+        <v>436.5</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="14"/>
+        <v>1527310.4944864018</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="11"/>
+        <v>45819.314834592056</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" si="12"/>
+        <v>31.818968635133373</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f>A100-1</f>
+        <v>98</v>
+      </c>
+      <c r="C100" s="5">
+        <f t="shared" si="9"/>
+        <v>735398112.25927854</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="10"/>
+        <v>441</v>
+      </c>
+      <c r="E100" s="5">
+        <f>C100 / D100</f>
+        <v>1667569.4155539195</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="11"/>
+        <v>50027.082466617583</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" si="12"/>
+        <v>34.741029490706651</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f>A101-1</f>
+        <v>99</v>
+      </c>
+      <c r="C101" s="5">
+        <f t="shared" si="9"/>
+        <v>810962001.22551036</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="10"/>
+        <v>445.5</v>
+      </c>
+      <c r="E101" s="5">
+        <f>C101 / D101</f>
+        <v>1820341.1924253879</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="11"/>
+        <v>54610.23577276164</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" si="12"/>
+        <v>37.923774842195584</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D102" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299FD6DE-4F9B-47EC-92CB-53BA9DEB904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B6A9B-CFDA-4244-A460-C09F4C4D4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -323,6 +323,42 @@
   <si>
     <t>挂机需要天数</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赦罪之血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之泪</t>
+  </si>
+  <si>
+    <t>天堂之尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献之灰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅弓箭手4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅5</t>
+  </si>
+  <si>
+    <t>巨人骷髅6</t>
+  </si>
+  <si>
+    <t>巨人骷髅7</t>
   </si>
 </sst>
 </file>
@@ -705,12 +741,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5:O16"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,7 +755,7 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
@@ -1433,38 +1469,341 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3">
+        <v>10</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3">
+        <v>20</v>
+      </c>
+      <c r="M18" s="3">
+        <v>20</v>
+      </c>
+      <c r="N18" s="3">
+        <v>20</v>
+      </c>
+      <c r="O18" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3">
+        <v>7015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>700</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3">
+        <v>30</v>
+      </c>
+      <c r="J19" s="3">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3">
+        <v>30</v>
+      </c>
+      <c r="L19" s="3">
+        <v>30</v>
+      </c>
+      <c r="M19" s="3">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3">
+        <v>30</v>
+      </c>
+      <c r="O19" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3">
+        <v>7016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>40</v>
+      </c>
+      <c r="H20" s="3">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3">
+        <v>40</v>
+      </c>
+      <c r="L20" s="3">
+        <v>40</v>
+      </c>
+      <c r="M20" s="3">
+        <v>40</v>
+      </c>
+      <c r="N20" s="3">
+        <v>40</v>
+      </c>
+      <c r="O20" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>60</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+      <c r="I21" s="3">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3">
+        <v>60</v>
+      </c>
+      <c r="K21" s="3">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3">
+        <v>60</v>
+      </c>
+      <c r="M21" s="3">
+        <v>60</v>
+      </c>
+      <c r="N21" s="3">
+        <v>60</v>
+      </c>
+      <c r="O21" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1544,9 +1883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C101"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4445,7 +4784,7 @@
         <v>400.5</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" ref="E91:E100" si="14">C91 / D91</f>
+        <f t="shared" ref="E91:E99" si="14">C91 / D91</f>
         <v>750395.39098062553</v>
       </c>
       <c r="F91" s="5">

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B6A9B-CFDA-4244-A460-C09F4C4D4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7BC81-23FF-4F88-A05C-C426AF6EC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,9 +744,9 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17:N21"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,28 +946,28 @@
         <v>100</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="3">
         <v>400</v>
@@ -991,28 +991,28 @@
         <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="3">
         <v>400</v>
@@ -1036,28 +1036,28 @@
         <v>100</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O7" s="3">
         <v>400</v>
@@ -1081,28 +1081,28 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
@@ -1126,28 +1126,28 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -1171,28 +1171,28 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -1216,28 +1216,28 @@
         <v>100</v>
       </c>
       <c r="G11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O11" s="3">
         <v>400</v>
@@ -1261,28 +1261,28 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -1306,28 +1306,28 @@
         <v>100</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O13" s="3">
         <v>400</v>
@@ -1351,28 +1351,28 @@
         <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="3">
         <v>400</v>
@@ -1396,28 +1396,28 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N15" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1441,28 +1441,28 @@
         <v>100</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="L16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O16" s="3">
         <v>400</v>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7BC81-23FF-4F88-A05C-C426AF6EC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD83017-B96F-4323-A001-0A37C0B80BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Enemy" sheetId="1" r:id="rId1"/>
+    <sheet name="EnemySkin" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -213,18 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SkeletonArcher2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkeletonArcher3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkeletonArcher</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GitanSkeleton1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -245,120 +234,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>skin_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物基础掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通物品掉落率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级需要经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要杀死多少敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞升次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机需要多少分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机需要天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金副本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赦罪之血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之泪</t>
+  </si>
+  <si>
+    <t>天堂之尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉献之灰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅弓箭手4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人骷髅5</t>
+  </si>
+  <si>
+    <t>巨人骷髅6</t>
+  </si>
+  <si>
+    <t>巨人骷髅7</t>
+  </si>
+  <si>
+    <t>left_leg</t>
+  </si>
+  <si>
+    <t>right_leg</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_hand</t>
+  </si>
+  <si>
+    <t>right_arm</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>left_hand</t>
+  </si>
+  <si>
+    <t>left_arm</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
     <t>Mummy3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物基础掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传奇物品掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗物品掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有物品掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法物品掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通物品掉落率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一级需要经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要杀死多少敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞升次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机需要多少分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机需要天数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赦罪之血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使之泪</t>
-  </si>
-  <si>
-    <t>天堂之尘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奉献之灰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅弓箭手4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人骷髅4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人骷髅5</t>
-  </si>
-  <si>
-    <t>巨人骷髅6</t>
-  </si>
-  <si>
-    <t>巨人骷髅7</t>
   </si>
 </sst>
 </file>
@@ -743,10 +762,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:N16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -812,7 +831,7 @@
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -895,7 +914,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -925,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1072,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -1117,7 +1136,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -1162,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -1207,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -1252,7 +1271,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1297,7 +1316,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -1342,7 +1361,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1387,7 +1406,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1432,7 +1451,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -1470,16 +1489,16 @@
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <v>7013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1517,16 +1536,16 @@
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3">
         <v>7014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3">
         <v>2000</v>
@@ -1564,16 +1583,16 @@
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3">
         <v>7015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3">
         <v>3000</v>
@@ -1611,16 +1630,16 @@
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
         <v>7016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
         <v>4000</v>
@@ -1658,16 +1677,16 @@
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>7017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3">
         <v>6000</v>
@@ -1812,6 +1831,467 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDC4EDE-C5BF-4C51-AAA4-87A73627F496}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4755CE-4DC2-4800-BADC-08EC8B6C27C4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1827,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4">
         <v>0.16</v>
@@ -1835,7 +2315,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4">
         <v>0.01</v>
@@ -1843,7 +2323,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>0.1</v>
@@ -1851,7 +2331,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -1859,7 +2339,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -1867,7 +2347,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4">
         <v>0.39</v>
@@ -1879,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0B6FF-1C2B-45C8-B2FD-5527B7888832}">
   <dimension ref="A1:H102"/>
   <sheetViews>
@@ -1897,28 +2377,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD83017-B96F-4323-A001-0A37C0B80BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8108C-5E24-42B4-8134-F88BE7B611C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -378,6 +378,62 @@
   </si>
   <si>
     <t>Mummy3</t>
+  </si>
+  <si>
+    <t>内容分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级打怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,10 +818,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,16 +1033,16 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
         <v>400</v>
@@ -1022,16 +1078,16 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>400</v>
@@ -1067,16 +1123,16 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <v>400</v>
@@ -1112,16 +1168,16 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
@@ -1157,16 +1213,16 @@
         <v>0.1</v>
       </c>
       <c r="K9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -1202,16 +1258,16 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -1247,16 +1303,16 @@
         <v>0.1</v>
       </c>
       <c r="K11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
         <v>400</v>
@@ -1292,16 +1348,16 @@
         <v>0.1</v>
       </c>
       <c r="K12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -1337,16 +1393,16 @@
         <v>0.1</v>
       </c>
       <c r="K13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
         <v>400</v>
@@ -1382,16 +1438,16 @@
         <v>0.1</v>
       </c>
       <c r="K14" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>400</v>
@@ -1427,16 +1483,16 @@
         <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1472,16 +1528,16 @@
         <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3">
         <v>400</v>
@@ -1834,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDC4EDE-C5BF-4C51-AAA4-87A73627F496}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2293,19 +2349,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4755CE-4DC2-4800-BADC-08EC8B6C27C4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2313,7 +2369,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2321,7 +2377,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2329,7 +2385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2337,7 +2393,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2345,12 +2401,70 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="4">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2478,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8108C-5E24-42B4-8134-F88BE7B611C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB5CF2-2410-4A3F-A123-6FA2D5B03C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
-    <sheet name="EnemySkin" sheetId="4" r:id="rId2"/>
+    <sheet name="DungeonEnemys" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -346,37 +346,6 @@
     <t>巨人骷髅7</t>
   </si>
   <si>
-    <t>left_leg</t>
-  </si>
-  <si>
-    <t>right_leg</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>face</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_hand</t>
-  </si>
-  <si>
-    <t>right_arm</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>left_hand</t>
-  </si>
-  <si>
-    <t>left_arm</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>Mummy3</t>
   </si>
   <si>
@@ -433,6 +402,34 @@
   </si>
   <si>
     <t>Lv70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vampire1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩劫洪流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,12 +813,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
@@ -1060,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -1150,7 +1147,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -1195,7 +1192,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -1237,10 +1234,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -1285,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3">
         <v>100</v>
@@ -1330,7 +1327,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1420,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
@@ -1465,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1510,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F16" s="3">
         <v>100</v>
@@ -1544,239 +1541,145 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>7013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="J17" s="3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>7014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="I18" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="J18" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3">
-        <v>7015</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>700</v>
-      </c>
-      <c r="G19" s="3">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3">
-        <v>30</v>
-      </c>
-      <c r="I19" s="3">
-        <v>30</v>
-      </c>
-      <c r="J19" s="3">
-        <v>30</v>
-      </c>
-      <c r="K19" s="3">
-        <v>30</v>
-      </c>
-      <c r="L19" s="3">
-        <v>30</v>
-      </c>
-      <c r="M19" s="3">
-        <v>30</v>
-      </c>
-      <c r="N19" s="3">
-        <v>30</v>
-      </c>
-      <c r="O19" s="3">
-        <v>400</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7016</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>40</v>
-      </c>
-      <c r="H20" s="3">
-        <v>40</v>
-      </c>
-      <c r="I20" s="3">
-        <v>40</v>
-      </c>
-      <c r="J20" s="3">
-        <v>40</v>
-      </c>
-      <c r="K20" s="3">
-        <v>40</v>
-      </c>
-      <c r="L20" s="3">
-        <v>40</v>
-      </c>
-      <c r="M20" s="3">
-        <v>40</v>
-      </c>
-      <c r="N20" s="3">
-        <v>40</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7017</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>60</v>
-      </c>
-      <c r="H21" s="3">
-        <v>60</v>
-      </c>
-      <c r="I21" s="3">
-        <v>60</v>
-      </c>
-      <c r="J21" s="3">
-        <v>60</v>
-      </c>
-      <c r="K21" s="3">
-        <v>60</v>
-      </c>
-      <c r="L21" s="3">
-        <v>60</v>
-      </c>
-      <c r="M21" s="3">
-        <v>60</v>
-      </c>
-      <c r="N21" s="3">
-        <v>60</v>
-      </c>
-      <c r="O21" s="3">
-        <v>700</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
@@ -1863,23 +1766,6 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1887,17 +1773,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDC4EDE-C5BF-4C51-AAA4-87A73627F496}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1905,38 +1793,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1947,35 +1843,43 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1988,148 +1892,342 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>400</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="B6" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="B7" s="3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>700</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>30</v>
+      </c>
+      <c r="N7" s="3">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="B8" s="3">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40</v>
+      </c>
+      <c r="K8" s="3">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3">
+        <v>40</v>
+      </c>
+      <c r="M8" s="3">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3">
+        <v>40</v>
+      </c>
+      <c r="O8" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B9" s="3">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3">
+        <v>60</v>
+      </c>
+      <c r="J9" s="3">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3">
+        <v>60</v>
+      </c>
+      <c r="L9" s="3">
+        <v>60</v>
+      </c>
+      <c r="M9" s="3">
+        <v>60</v>
+      </c>
+      <c r="N9" s="3">
+        <v>60</v>
+      </c>
+      <c r="O9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="B10" s="3">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2140,15 +2238,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2159,15 +2255,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2178,15 +2272,13 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2197,15 +2289,13 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2216,15 +2306,13 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2235,115 +2323,13 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2411,60 +2397,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
         <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB5CF2-2410-4A3F-A123-6FA2D5B03C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44472918-73C8-4247-B74B-88E8D1CAD028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:N10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44472918-73C8-4247-B74B-88E8D1CAD028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E71C37-0293-44C6-BAD9-8A3E31BFD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -815,10 +815,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3">
         <v>0.1</v>
@@ -1060,7 +1060,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3">
         <v>0.1</v>
@@ -1105,7 +1105,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
         <v>0.1</v>
@@ -1150,7 +1150,7 @@
         <v>180</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3">
         <v>0.1</v>
@@ -1195,7 +1195,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3">
         <v>0.1</v>
@@ -1240,7 +1240,7 @@
         <v>240</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
         <v>0.1</v>
@@ -1285,7 +1285,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3">
         <v>0.1</v>
@@ -1330,7 +1330,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3">
         <v>0.1</v>
@@ -1375,7 +1375,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3">
         <v>0.1</v>
@@ -1435,19 +1435,19 @@
         <v>0.1</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1480,19 +1480,19 @@
         <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1525,19 +1525,19 @@
         <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O16" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1555,7 +1555,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3">
         <v>0.1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1600,7 +1600,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3">
         <v>0.1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA639C1-B7A9-4558-AA8A-6FFF02A6BAEF}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E71C37-0293-44C6-BAD9-8A3E31BFD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0383B-FC32-4101-A881-BCE278E8E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -430,6 +430,33 @@
   </si>
   <si>
     <t>浩劫洪流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeletonArcher</t>
+  </si>
+  <si>
+    <t>base_vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础视野半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击范围半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_atk_range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_atk_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击冷却</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -813,12 +840,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,21 +853,24 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,37 +887,46 @@
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -933,8 +972,17 @@
       <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -952,8 +1000,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -970,37 +1021,46 @@
         <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>7001</v>
@@ -1015,37 +1075,46 @@
         <v>100</v>
       </c>
       <c r="F5" s="3">
+        <v>360</v>
+      </c>
+      <c r="G5" s="3">
+        <v>125</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J5" s="3">
         <v>0.1</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
       </c>
       <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>7002</v>
@@ -1060,37 +1129,46 @@
         <v>150</v>
       </c>
       <c r="F6" s="3">
+        <v>360</v>
+      </c>
+      <c r="G6" s="3">
+        <v>125</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="3">
         <v>40</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J6" s="3">
         <v>0.1</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>7003</v>
@@ -1105,37 +1183,46 @@
         <v>200</v>
       </c>
       <c r="F7" s="3">
+        <v>360</v>
+      </c>
+      <c r="G7" s="3">
+        <v>125</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="3">
         <v>20</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J7" s="3">
         <v>0.1</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
       </c>
       <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>7004</v>
@@ -1150,37 +1237,46 @@
         <v>180</v>
       </c>
       <c r="F8" s="3">
+        <v>360</v>
+      </c>
+      <c r="G8" s="3">
+        <v>125</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="3">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J8" s="3">
         <v>0.1</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>7005</v>
@@ -1195,37 +1291,46 @@
         <v>150</v>
       </c>
       <c r="F9" s="3">
+        <v>360</v>
+      </c>
+      <c r="G9" s="3">
+        <v>125</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="3">
         <v>60</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J9" s="3">
         <v>0.1</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>7006</v>
@@ -1240,37 +1345,46 @@
         <v>240</v>
       </c>
       <c r="F10" s="3">
+        <v>360</v>
+      </c>
+      <c r="G10" s="3">
+        <v>125</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="3">
         <v>40</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J10" s="3">
         <v>0.1</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>7007</v>
@@ -1279,43 +1393,52 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
       </c>
       <c r="F11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="3">
         <v>40</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J11" s="3">
         <v>0.1</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>7008</v>
@@ -1324,43 +1447,52 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>120</v>
       </c>
       <c r="F12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="3">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J12" s="3">
         <v>0.1</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>7009</v>
@@ -1369,43 +1501,52 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
       </c>
       <c r="F13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="3">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J13" s="3">
         <v>0.1</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
       </c>
       <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>7010</v>
@@ -1420,17 +1561,17 @@
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>360</v>
+      </c>
+      <c r="G14" s="3">
+        <v>125</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J14" s="3">
         <v>0.1</v>
       </c>
@@ -1447,10 +1588,19 @@
         <v>0.1</v>
       </c>
       <c r="O14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>7011</v>
@@ -1465,37 +1615,46 @@
         <v>450</v>
       </c>
       <c r="F15" s="3">
+        <v>360</v>
+      </c>
+      <c r="G15" s="3">
+        <v>125</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J15" s="3">
         <v>0.1</v>
       </c>
       <c r="K15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M15" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N15" s="3">
         <v>0.2</v>
       </c>
       <c r="O15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>7012</v>
@@ -1510,37 +1669,46 @@
         <v>600</v>
       </c>
       <c r="F16" s="3">
+        <v>360</v>
+      </c>
+      <c r="G16" s="3">
+        <v>125</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="3">
         <v>100</v>
       </c>
-      <c r="G16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J16" s="3">
         <v>0.1</v>
       </c>
       <c r="K16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
         <v>0.3</v>
       </c>
       <c r="O16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R16" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>7013</v>
@@ -1555,37 +1723,46 @@
         <v>50</v>
       </c>
       <c r="F17" s="3">
+        <v>360</v>
+      </c>
+      <c r="G17" s="3">
+        <v>125</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="3">
         <v>50</v>
       </c>
-      <c r="G17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J17" s="3">
         <v>0.1</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>7014</v>
@@ -1600,37 +1777,46 @@
         <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>360</v>
+      </c>
+      <c r="G18" s="3">
+        <v>125</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="3">
         <v>40</v>
       </c>
-      <c r="G18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.1</v>
-      </c>
       <c r="J18" s="3">
         <v>0.1</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1646,8 +1832,11 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1663,8 +1852,11 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1680,8 +1872,11 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1697,8 +1892,11 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1714,8 +1912,11 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1731,8 +1932,11 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1748,8 +1952,11 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1765,6 +1972,9 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Enemys.xlsx
+++ b/DataBase/Datas/Enemys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0383B-FC32-4101-A881-BCE278E8E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E40144-45D4-46B8-BD3B-6F2FC220AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
